--- a/smartfridge_resources.xlsx
+++ b/smartfridge_resources.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Detail</t>
+          <t>Ressource / Détail</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Quantity</t>
+          <t>Quantité</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Estimated Cost (€)</t>
+          <t>Coût estimé (€)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fridge prototype unit</t>
+          <t>Frigo standard modifié (base prototype)</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -479,7 +479,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Used for prototype testing</t>
+          <t>Support physique pour le prototype caméra+IA</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camera module (HD, cold-resistant)</t>
+          <t>Caméras internes HD grand angle résistantes au froid</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -502,7 +502,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Handles visual recognition inside fridge</t>
+          <t>Doit supporter condensation, basse température</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jetson Nano (AI compute)</t>
+          <t>Module IA embarqué (Jetson Nano / Raspberry Pi 5)</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -525,7 +525,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Runs edge AI locally</t>
+          <t>Exécute l'IA en local (edge AI)</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TensorFlow / PyTorch</t>
+          <t>Stack IA vision (PyTorch + YOLO + TensorRT/ONNX)</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Free / open-source</t>
+          <t>Open source → coût licence nul</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>React Native + API tools</t>
+          <t>App mobile React Native + backend FastAPI/PostgreSQL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -571,19 +571,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Free / open-source</t>
+          <t>Dev logiciel interne, pas de licence payante</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Humain</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AI Engineer</t>
+          <t>IA Engineer / Computer Vision</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -594,19 +594,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1 month salary estimate</t>
+          <t>1 mois d'IA/vision temps plein (estimation)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Humain</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IoT Engineer</t>
+          <t>IoT / Embedded Engineer</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -617,19 +617,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1 month salary estimate</t>
+          <t>Intégration hardware + réseau Wi-Fi sécurisé</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>Humain</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mobile Developer</t>
+          <t>Mobile + Backend Developer</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -640,19 +640,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2 months dev effort</t>
+          <t>DEV app + backend + intégration Drive</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Infrastructure</t>
+          <t>Infra</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cloud server (OVH / AWS)</t>
+          <t>Serveur cloud (OVH / AWS) pour API + DB</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -663,19 +663,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cloud hosting + storage 1 year</t>
+          <t>Hébergement / stockage 12 mois</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Autre</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Training materials</t>
+          <t>Temps réunions / tests utilisateurs pilotes</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Learning for IA model training</t>
+          <t>Panels test familles pilotes / feedback terrain</t>
         </is>
       </c>
     </row>
